--- a/Excel/21-div-25q2.xlsx
+++ b/Excel/21-div-25q2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c8862359375ebd62/A5/Excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/C8862359375EBD62/A5/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="11_085DD07F17645E0F623554765806CE7C93E1950A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{581E3BFA-6C5A-40C0-931C-1EE5B4377BF3}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="11_085DD07F17645E0F623554765806CE7C93E1950A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BBDCAD71-165C-4F33-B71F-DBF58BFB14F2}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2196" windowWidth="18060" windowHeight="9960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7224" yWindow="0" windowWidth="15540" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -202,13 +202,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.00000"/>
+    <numFmt numFmtId="187" formatCode="0.00000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Tahoma"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -262,10 +262,10 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="187" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="187" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -285,6 +285,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -575,18 +579,18 @@
   <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:XFD10"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="8.88671875" style="5"/>
-    <col min="3" max="3" width="8.88671875" style="7"/>
-    <col min="4" max="5" width="8.88671875" style="3"/>
-    <col min="6" max="7" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.8984375" style="5"/>
+    <col min="3" max="3" width="8.8984375" style="7"/>
+    <col min="4" max="5" width="8.8984375" style="3"/>
+    <col min="6" max="7" width="10.296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -612,7 +616,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -638,7 +642,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -664,7 +668,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -690,7 +694,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -716,21 +720,23 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>15</v>
       </c>
       <c r="B6" s="5">
-        <v>0.15459999999999999</v>
+        <v>0.15454999999999999</v>
       </c>
       <c r="C6" s="7">
         <v>120000</v>
       </c>
       <c r="D6" s="3">
-        <v>18552</v>
+        <f>B6*C6</f>
+        <v>18546</v>
       </c>
       <c r="E6" s="3">
-        <v>16696.8</v>
+        <f>D6</f>
+        <v>18546</v>
       </c>
       <c r="F6" t="s">
         <v>16</v>
@@ -742,7 +748,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -768,7 +774,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -794,7 +800,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -820,7 +826,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>24</v>
       </c>
@@ -846,7 +852,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>27</v>
       </c>
@@ -872,7 +878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>30</v>
       </c>
@@ -898,7 +904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>32</v>
       </c>
@@ -924,7 +930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>34</v>
       </c>
@@ -950,7 +956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>37</v>
       </c>
@@ -976,7 +982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>39</v>
       </c>
@@ -1002,7 +1008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>41</v>
       </c>
@@ -1028,7 +1034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>44</v>
       </c>
@@ -1054,7 +1060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>47</v>
       </c>
@@ -1080,7 +1086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>49</v>
       </c>
@@ -1106,7 +1112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>52</v>
       </c>
@@ -1132,10 +1138,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E22" s="3">
         <f>SUM(E2:E21)</f>
-        <v>93898.89</v>
+        <v>95748.09</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/21-div-25q2.xlsx
+++ b/Excel/21-div-25q2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/C8862359375EBD62/A5/Excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c8862359375ebd62/A5/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="11_085DD07F17645E0F623554765806CE7C93E1950A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BBDCAD71-165C-4F33-B71F-DBF58BFB14F2}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="11_085D1F27D74F060E6235547658670EBCAE1797AA" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{43B9C597-D895-4AB7-BFDD-075D30D18C41}"/>
   <bookViews>
-    <workbookView xWindow="7224" yWindow="0" windowWidth="15540" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="50">
   <si>
     <t>name</t>
   </si>
@@ -59,6 +59,51 @@
     <t>actual</t>
   </si>
   <si>
+    <t>BCH</t>
+  </si>
+  <si>
+    <t>2025-08-28</t>
+  </si>
+  <si>
+    <t>2025-09-12</t>
+  </si>
+  <si>
+    <t>TOA</t>
+  </si>
+  <si>
+    <t>AH</t>
+  </si>
+  <si>
+    <t>2025-08-27</t>
+  </si>
+  <si>
+    <t>2025-09-10</t>
+  </si>
+  <si>
+    <t>GVREIT</t>
+  </si>
+  <si>
+    <t>2025-09-11</t>
+  </si>
+  <si>
+    <t>IVL</t>
+  </si>
+  <si>
+    <t>CPNREIT</t>
+  </si>
+  <si>
+    <t>2025-08-26</t>
+  </si>
+  <si>
+    <t>JMT</t>
+  </si>
+  <si>
+    <t>MCS</t>
+  </si>
+  <si>
+    <t>SYNEX</t>
+  </si>
+  <si>
     <t>NER</t>
   </si>
   <si>
@@ -113,30 +158,15 @@
     <t>2025-08-13</t>
   </si>
   <si>
-    <t>2025-08-28</t>
-  </si>
-  <si>
-    <t>GVREIT</t>
+    <t>TFFIF</t>
   </si>
   <si>
     <t>2025-05-28</t>
   </si>
   <si>
-    <t>2025-06-12</t>
-  </si>
-  <si>
-    <t>TFFIF</t>
-  </si>
-  <si>
     <t>2025-06-16</t>
   </si>
   <si>
-    <t>IVL</t>
-  </si>
-  <si>
-    <t>2025-05-27</t>
-  </si>
-  <si>
     <t>JMART</t>
   </si>
   <si>
@@ -146,42 +176,6 @@
     <t>2025-05-29</t>
   </si>
   <si>
-    <t>TOA</t>
-  </si>
-  <si>
-    <t>2025-05-23</t>
-  </si>
-  <si>
-    <t>BCH</t>
-  </si>
-  <si>
-    <t>2025-05-02</t>
-  </si>
-  <si>
-    <t>SYNEX</t>
-  </si>
-  <si>
-    <t>2025-04-30</t>
-  </si>
-  <si>
-    <t>2025-05-14</t>
-  </si>
-  <si>
-    <t>MCS</t>
-  </si>
-  <si>
-    <t>2025-04-18</t>
-  </si>
-  <si>
-    <t>2025-05-07</t>
-  </si>
-  <si>
-    <t>AH</t>
-  </si>
-  <si>
-    <t>2025-03-13</t>
-  </si>
-  <si>
     <t>PTT</t>
   </si>
   <si>
@@ -189,26 +183,17 @@
   </si>
   <si>
     <t>2025-04-29</t>
-  </si>
-  <si>
-    <t>JMT</t>
-  </si>
-  <si>
-    <t>2025-02-25</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="187" formatCode="0.00000"/>
-  </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Tahoma"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -216,6 +201,14 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -253,23 +246,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="187" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="187" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -285,10 +267,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -576,34 +554,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="8.8984375" style="5"/>
-    <col min="3" max="3" width="8.8984375" style="7"/>
-    <col min="4" max="5" width="8.8984375" style="3"/>
-    <col min="6" max="7" width="10.296875" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="6" t="s">
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
@@ -616,21 +588,21 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="5">
-        <v>0.05</v>
-      </c>
-      <c r="C2" s="7">
-        <v>27000</v>
-      </c>
-      <c r="D2" s="3">
-        <v>1350</v>
-      </c>
-      <c r="E2" s="3">
-        <v>1215</v>
+      <c r="B2">
+        <v>0.15</v>
+      </c>
+      <c r="C2">
+        <v>4000</v>
+      </c>
+      <c r="D2">
+        <v>600</v>
+      </c>
+      <c r="E2">
+        <v>540</v>
       </c>
       <c r="F2" t="s">
         <v>9</v>
@@ -642,21 +614,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="C3" s="7">
-        <v>24000</v>
-      </c>
-      <c r="D3" s="3">
-        <v>12000</v>
-      </c>
-      <c r="E3" s="3">
-        <v>10800</v>
+      <c r="B3">
+        <v>0.36</v>
+      </c>
+      <c r="C3">
+        <v>1000</v>
+      </c>
+      <c r="D3">
+        <v>360</v>
+      </c>
+      <c r="E3">
+        <v>324</v>
       </c>
       <c r="F3" t="s">
         <v>9</v>
@@ -668,130 +640,130 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="5">
-        <v>0.8</v>
-      </c>
-      <c r="C4" s="7">
-        <v>8000</v>
-      </c>
-      <c r="D4" s="3">
-        <v>6400</v>
-      </c>
-      <c r="E4" s="3">
-        <v>5760</v>
+      <c r="B4">
+        <v>0.31</v>
+      </c>
+      <c r="C4">
+        <v>1200</v>
+      </c>
+      <c r="D4">
+        <v>372</v>
+      </c>
+      <c r="E4">
+        <v>334.8</v>
       </c>
       <c r="F4" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="G4" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0.19650000000000001</v>
+      </c>
+      <c r="C5">
+        <v>69000</v>
+      </c>
+      <c r="D5">
+        <f>B5*C5</f>
+        <v>13558.5</v>
+      </c>
+      <c r="E5">
+        <f>D5*0.9</f>
+        <v>12202.65</v>
+      </c>
+      <c r="F5" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="5">
-        <v>0.20499999999999999</v>
-      </c>
-      <c r="C5" s="7">
-        <v>15000</v>
-      </c>
-      <c r="D5" s="3">
-        <v>3075</v>
-      </c>
-      <c r="E5" s="3">
-        <v>2767.5</v>
-      </c>
-      <c r="F5" t="s">
-        <v>14</v>
-      </c>
       <c r="G5" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="H5">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="5">
-        <v>0.15454999999999999</v>
-      </c>
-      <c r="C6" s="7">
-        <v>120000</v>
-      </c>
-      <c r="D6" s="3">
-        <f>B6*C6</f>
-        <v>18546</v>
-      </c>
-      <c r="E6" s="3">
-        <f>D6</f>
-        <v>18546</v>
+        <v>17</v>
+      </c>
+      <c r="B6">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="C6">
+        <v>7200</v>
+      </c>
+      <c r="D6">
+        <v>1260</v>
+      </c>
+      <c r="E6">
+        <v>1134</v>
       </c>
       <c r="F6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" t="s">
         <v>16</v>
       </c>
-      <c r="G6" t="s">
-        <v>17</v>
-      </c>
       <c r="H6">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="5">
-        <v>0.13250000000000001</v>
-      </c>
-      <c r="C7" s="7">
-        <v>50000</v>
-      </c>
-      <c r="D7" s="3">
-        <v>6625</v>
-      </c>
-      <c r="E7" s="3">
-        <v>5962.5</v>
+      <c r="B7">
+        <v>0.2261</v>
+      </c>
+      <c r="C7">
+        <v>55000</v>
+      </c>
+      <c r="D7">
+        <v>12435.5</v>
+      </c>
+      <c r="E7">
+        <v>11191.95</v>
       </c>
       <c r="F7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" t="s">
         <v>16</v>
       </c>
-      <c r="G7" t="s">
-        <v>19</v>
-      </c>
       <c r="H7">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="5">
-        <v>0.17169999999999999</v>
-      </c>
-      <c r="C8" s="7">
-        <v>25000</v>
-      </c>
-      <c r="D8" s="3">
-        <v>4292.5</v>
-      </c>
-      <c r="E8" s="3">
-        <v>3863.25</v>
+      <c r="B8">
+        <v>0.24</v>
+      </c>
+      <c r="C8">
+        <v>4200</v>
+      </c>
+      <c r="D8">
+        <v>1008</v>
+      </c>
+      <c r="E8">
+        <v>907.2</v>
       </c>
       <c r="F8" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G8" t="s">
         <v>10</v>
@@ -800,348 +772,374 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9">
+        <v>0.25</v>
+      </c>
+      <c r="C9">
+        <v>81000</v>
+      </c>
+      <c r="D9">
+        <v>20250</v>
+      </c>
+      <c r="E9">
+        <v>18225</v>
+      </c>
+      <c r="F9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10">
+        <v>0.1</v>
+      </c>
+      <c r="C10">
+        <v>17500</v>
+      </c>
+      <c r="D10">
+        <v>1750</v>
+      </c>
+      <c r="E10">
+        <v>1575</v>
+      </c>
+      <c r="F10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11">
+        <v>0.05</v>
+      </c>
+      <c r="C11">
+        <v>27000</v>
+      </c>
+      <c r="D11">
+        <v>1350</v>
+      </c>
+      <c r="E11">
+        <v>1215</v>
+      </c>
+      <c r="F11" t="s">
+        <v>24</v>
+      </c>
+      <c r="G11" t="s">
+        <v>25</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12">
+        <v>0.5</v>
+      </c>
+      <c r="C12">
+        <v>24000</v>
+      </c>
+      <c r="D12">
+        <v>12000</v>
+      </c>
+      <c r="E12">
+        <v>10800</v>
+      </c>
+      <c r="F12" t="s">
+        <v>24</v>
+      </c>
+      <c r="G12" t="s">
+        <v>25</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13">
+        <v>0.8</v>
+      </c>
+      <c r="C13">
+        <v>8000</v>
+      </c>
+      <c r="D13">
+        <v>6400</v>
+      </c>
+      <c r="E13">
+        <v>5760</v>
+      </c>
+      <c r="F13" t="s">
+        <v>24</v>
+      </c>
+      <c r="G13" t="s">
+        <v>25</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14">
+        <v>0.20499999999999999</v>
+      </c>
+      <c r="C14">
+        <v>17500</v>
+      </c>
+      <c r="D14">
+        <v>3587.5</v>
+      </c>
+      <c r="E14">
+        <v>3228.75</v>
+      </c>
+      <c r="F14" t="s">
+        <v>29</v>
+      </c>
+      <c r="G14" t="s">
+        <v>25</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15">
+        <v>0.15459999999999999</v>
+      </c>
+      <c r="C15">
+        <v>120000</v>
+      </c>
+      <c r="D15">
+        <v>18552</v>
+      </c>
+      <c r="E15">
+        <v>16696.8</v>
+      </c>
+      <c r="F15" t="s">
+        <v>31</v>
+      </c>
+      <c r="G15" t="s">
+        <v>32</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16">
+        <v>0.13250000000000001</v>
+      </c>
+      <c r="C16">
+        <v>50000</v>
+      </c>
+      <c r="D16">
+        <v>6625</v>
+      </c>
+      <c r="E16">
+        <v>5962.5</v>
+      </c>
+      <c r="F16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G16" t="s">
+        <v>34</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17">
+        <v>0.17169999999999999</v>
+      </c>
+      <c r="C17">
+        <v>25000</v>
+      </c>
+      <c r="D17">
+        <v>4292.5</v>
+      </c>
+      <c r="E17">
+        <v>3863.25</v>
+      </c>
+      <c r="F17" t="s">
+        <v>31</v>
+      </c>
+      <c r="G17" t="s">
+        <v>25</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18">
         <v>0.22220000000000001</v>
       </c>
-      <c r="C9" s="7">
-        <v>40000</v>
-      </c>
-      <c r="D9" s="3">
-        <v>8888</v>
-      </c>
-      <c r="E9" s="3">
-        <v>7999.2</v>
-      </c>
-      <c r="F9" t="s">
-        <v>22</v>
-      </c>
-      <c r="G9" t="s">
-        <v>23</v>
-      </c>
-      <c r="H9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" s="5">
+      <c r="C18">
+        <v>50000</v>
+      </c>
+      <c r="D18">
+        <v>11110</v>
+      </c>
+      <c r="E18">
+        <v>9999</v>
+      </c>
+      <c r="F18" t="s">
+        <v>37</v>
+      </c>
+      <c r="G18" t="s">
+        <v>38</v>
+      </c>
+      <c r="H18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>39</v>
+      </c>
+      <c r="B19">
         <v>2.5</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C19">
         <v>600</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D19">
         <v>1500</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E19">
         <v>1350</v>
       </c>
-      <c r="F10" t="s">
-        <v>25</v>
-      </c>
-      <c r="G10" t="s">
-        <v>26</v>
-      </c>
-      <c r="H10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>27</v>
-      </c>
-      <c r="B11" s="5">
-        <v>0.19839999999999999</v>
-      </c>
-      <c r="C11" s="7">
-        <v>69000</v>
-      </c>
-      <c r="D11" s="3">
-        <v>13689.6</v>
-      </c>
-      <c r="E11" s="3">
-        <v>12320.64</v>
-      </c>
-      <c r="F11" t="s">
-        <v>28</v>
-      </c>
-      <c r="G11" t="s">
-        <v>29</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>30</v>
-      </c>
-      <c r="B12" s="5">
+      <c r="F19" t="s">
+        <v>40</v>
+      </c>
+      <c r="G19" t="s">
+        <v>9</v>
+      </c>
+      <c r="H19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>41</v>
+      </c>
+      <c r="B20">
         <v>0.1176</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C20">
         <v>20000</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D20">
         <v>2352</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E20">
         <v>2116.8000000000002</v>
       </c>
-      <c r="F12" t="s">
-        <v>28</v>
-      </c>
-      <c r="G12" t="s">
-        <v>31</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>32</v>
-      </c>
-      <c r="B13" s="5">
-        <v>0.17499999999999999</v>
-      </c>
-      <c r="C13" s="7">
-        <v>7200</v>
-      </c>
-      <c r="D13" s="3">
-        <v>1260</v>
-      </c>
-      <c r="E13" s="3">
-        <v>1134</v>
-      </c>
-      <c r="F13" t="s">
-        <v>33</v>
-      </c>
-      <c r="G13" t="s">
-        <v>29</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>34</v>
-      </c>
-      <c r="B14" s="5">
-        <v>0.24</v>
-      </c>
-      <c r="C14" s="7">
-        <v>6800</v>
-      </c>
-      <c r="D14" s="3">
-        <v>1632</v>
-      </c>
-      <c r="E14" s="3">
-        <v>1468.8</v>
-      </c>
-      <c r="F14" t="s">
-        <v>35</v>
-      </c>
-      <c r="G14" t="s">
-        <v>36</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>37</v>
-      </c>
-      <c r="B15" s="5">
-        <v>0.33</v>
-      </c>
-      <c r="C15" s="7">
-        <v>1000</v>
-      </c>
-      <c r="D15" s="3">
-        <v>330</v>
-      </c>
-      <c r="E15" s="3">
-        <v>297</v>
-      </c>
-      <c r="F15" t="s">
-        <v>35</v>
-      </c>
-      <c r="G15" t="s">
-        <v>38</v>
-      </c>
-      <c r="H15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>39</v>
-      </c>
-      <c r="B16" s="5">
-        <v>0.12</v>
-      </c>
-      <c r="C16" s="7">
-        <v>4000</v>
-      </c>
-      <c r="D16" s="3">
-        <v>480</v>
-      </c>
-      <c r="E16" s="3">
-        <v>432</v>
-      </c>
-      <c r="F16" t="s">
-        <v>40</v>
-      </c>
-      <c r="G16" t="s">
-        <v>38</v>
-      </c>
-      <c r="H16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>41</v>
-      </c>
-      <c r="B17" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C17" s="7">
-        <v>17500</v>
-      </c>
-      <c r="D17" s="3">
-        <v>1750</v>
-      </c>
-      <c r="E17" s="3">
-        <v>1575</v>
-      </c>
-      <c r="F17" t="s">
+      <c r="F20" t="s">
         <v>42</v>
       </c>
-      <c r="G17" t="s">
+      <c r="G20" t="s">
         <v>43</v>
-      </c>
-      <c r="H17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>44</v>
-      </c>
-      <c r="B18" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="C18" s="7">
-        <v>81000</v>
-      </c>
-      <c r="D18" s="3">
-        <v>16200</v>
-      </c>
-      <c r="E18" s="3">
-        <v>14580</v>
-      </c>
-      <c r="F18" t="s">
-        <v>45</v>
-      </c>
-      <c r="G18" t="s">
-        <v>46</v>
-      </c>
-      <c r="H18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>47</v>
-      </c>
-      <c r="B19" s="5">
-        <v>0.3</v>
-      </c>
-      <c r="C19" s="7">
-        <v>1200</v>
-      </c>
-      <c r="D19" s="3">
-        <v>360</v>
-      </c>
-      <c r="E19" s="3">
-        <v>324</v>
-      </c>
-      <c r="F19" t="s">
-        <v>48</v>
-      </c>
-      <c r="G19" t="s">
-        <v>38</v>
-      </c>
-      <c r="H19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>49</v>
-      </c>
-      <c r="B20" s="5">
-        <v>0.8</v>
-      </c>
-      <c r="C20" s="7">
-        <v>2500</v>
-      </c>
-      <c r="D20" s="3">
-        <v>2000</v>
-      </c>
-      <c r="E20" s="3">
-        <v>1800</v>
-      </c>
-      <c r="F20" t="s">
-        <v>50</v>
-      </c>
-      <c r="G20" t="s">
-        <v>51</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>52</v>
-      </c>
-      <c r="B21" s="5">
-        <v>0.38</v>
-      </c>
-      <c r="C21" s="7">
-        <v>4200</v>
-      </c>
-      <c r="D21" s="3">
-        <v>1596</v>
-      </c>
-      <c r="E21" s="3">
-        <v>1436.4</v>
+        <v>44</v>
+      </c>
+      <c r="B21">
+        <v>0.24</v>
+      </c>
+      <c r="C21">
+        <v>6800</v>
+      </c>
+      <c r="D21">
+        <v>1632</v>
+      </c>
+      <c r="E21">
+        <v>1468.8</v>
       </c>
       <c r="F21" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="G21" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E22" s="3">
-        <f>SUM(E2:E21)</f>
-        <v>95748.09</v>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>47</v>
+      </c>
+      <c r="B22">
+        <v>0.8</v>
+      </c>
+      <c r="C22">
+        <v>2500</v>
+      </c>
+      <c r="D22">
+        <v>2000</v>
+      </c>
+      <c r="E22">
+        <v>1800</v>
+      </c>
+      <c r="F22" t="s">
+        <v>48</v>
+      </c>
+      <c r="G22" t="s">
+        <v>49</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E23">
+        <f>SUM(E2:E22)</f>
+        <v>110695.50000000001</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/21-div-25q2.xlsx
+++ b/Excel/21-div-25q2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c8862359375ebd62/A5/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="11_085D1F27D74F060E6235547658670EBCAE1797AA" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{43B9C597-D895-4AB7-BFDD-075D30D18C41}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="11_085D1F27D74F060E6235547658670EBCAE1797AA" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{60682979-F7D7-4DF6-BB35-BEF15683148F}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10380" yWindow="972" windowWidth="11520" windowHeight="9948" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -267,6 +267,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -561,6 +565,9 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="6" max="6" width="10.33203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">

--- a/Excel/21-div-25q2.xlsx
+++ b/Excel/21-div-25q2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c8862359375ebd62/A5/Excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC1\OneDrive\A5\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="11_085D1F27D74F060E6235547658670EBCAE1797AA" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{60682979-F7D7-4DF6-BB35-BEF15683148F}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F3DCF4D-74C3-4193-BB5D-BB65216E93B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10380" yWindow="972" windowWidth="11520" windowHeight="9948" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11904" yWindow="1668" windowWidth="10692" windowHeight="9948" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="49">
   <si>
     <t>name</t>
   </si>
@@ -161,12 +161,6 @@
     <t>TFFIF</t>
   </si>
   <si>
-    <t>2025-05-28</t>
-  </si>
-  <si>
-    <t>2025-06-16</t>
-  </si>
-  <si>
     <t>JMART</t>
   </si>
   <si>
@@ -183,12 +177,18 @@
   </si>
   <si>
     <t>2025-04-29</t>
+  </si>
+  <si>
+    <t>CPF</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="yyyy/mm/dd;@"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -246,12 +246,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -267,10 +268,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -558,15 +555,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="6" max="6" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
@@ -805,7 +802,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>22</v>
       </c>
@@ -831,7 +828,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>23</v>
       </c>
@@ -865,13 +862,15 @@
         <v>0.5</v>
       </c>
       <c r="C12">
-        <v>24000</v>
+        <v>27000</v>
       </c>
       <c r="D12">
-        <v>12000</v>
+        <f>B12*C12</f>
+        <v>13500</v>
       </c>
       <c r="E12">
-        <v>10800</v>
+        <f>D12*0.9</f>
+        <v>12150</v>
       </c>
       <c r="F12" t="s">
         <v>24</v>
@@ -1067,89 +1066,124 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="B20">
-        <v>0.1176</v>
+        <v>1</v>
       </c>
       <c r="C20">
-        <v>20000</v>
+        <v>4000</v>
       </c>
       <c r="D20">
-        <v>2352</v>
+        <f>B20*C20</f>
+        <v>4000</v>
       </c>
       <c r="E20">
-        <v>2116.8000000000002</v>
-      </c>
-      <c r="F20" t="s">
-        <v>42</v>
-      </c>
-      <c r="G20" t="s">
-        <v>43</v>
+        <f>D20*0.9</f>
+        <v>3600</v>
+      </c>
+      <c r="F20" s="3">
+        <v>45898</v>
+      </c>
+      <c r="G20" s="3">
+        <v>45912</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>44</v>
-      </c>
-      <c r="B21">
-        <v>0.24</v>
+        <v>41</v>
+      </c>
+      <c r="B21" s="2">
+        <v>0.1128</v>
       </c>
       <c r="C21">
-        <v>6800</v>
+        <v>20000</v>
       </c>
       <c r="D21">
-        <v>1632</v>
+        <f>B21*C21</f>
+        <v>2256</v>
       </c>
       <c r="E21">
-        <v>1468.8</v>
-      </c>
-      <c r="F21" t="s">
-        <v>45</v>
-      </c>
-      <c r="G21" t="s">
-        <v>46</v>
+        <f>D21*0.9</f>
+        <v>2030.4</v>
+      </c>
+      <c r="F21" s="3">
+        <v>45897</v>
+      </c>
+      <c r="G21" s="3">
+        <v>45915</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B22">
-        <v>0.8</v>
+        <v>0.24</v>
       </c>
       <c r="C22">
-        <v>2500</v>
+        <v>6800</v>
       </c>
       <c r="D22">
-        <v>2000</v>
+        <v>1632</v>
       </c>
       <c r="E22">
-        <v>1800</v>
+        <v>1468.8</v>
       </c>
       <c r="F22" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="G22" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>45</v>
+      </c>
+      <c r="B23">
+        <v>0.8</v>
+      </c>
+      <c r="C23">
+        <v>2500</v>
+      </c>
+      <c r="D23">
+        <v>2000</v>
+      </c>
       <c r="E23">
-        <f>SUM(E2:E22)</f>
-        <v>110695.50000000001</v>
+        <v>1800</v>
+      </c>
+      <c r="F23" t="s">
+        <v>46</v>
+      </c>
+      <c r="G23" t="s">
+        <v>47</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E24">
+        <f>SUM(E2:E23)</f>
+        <v>115559.1</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H23">
+    <sortCondition descending="1" ref="H2:H23"/>
+    <sortCondition descending="1" ref="F2:F23"/>
+    <sortCondition ref="A2:A23"/>
+  </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/Excel/21-div-25q2.xlsx
+++ b/Excel/21-div-25q2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC1\OneDrive\A5\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c8862359375ebd62/A5/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F3DCF4D-74C3-4193-BB5D-BB65216E93B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="22" documentId="13_ncr:1_{3F3DCF4D-74C3-4193-BB5D-BB65216E93B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FEC2CE09-35DF-4944-BCAA-CC98FD0C6EE3}"/>
   <bookViews>
-    <workbookView xWindow="11904" yWindow="1668" windowWidth="10692" windowHeight="9948" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="384" yWindow="384" windowWidth="10116" windowHeight="9960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="50">
   <si>
     <t>name</t>
   </si>
@@ -180,14 +180,19 @@
   </si>
   <si>
     <t>CPF</t>
+  </si>
+  <si>
+    <t>Total</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yyyy/mm/dd;@"/>
+  <numFmts count="3">
+    <numFmt numFmtId="164" formatCode="yyyy/mm/dd;@"/>
+    <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="166" formatCode="0.00000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -246,13 +251,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -268,6 +283,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -555,14 +574,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="3" max="3" width="8.88671875" style="9"/>
+    <col min="4" max="4" width="10" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11" style="5" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -573,13 +595,13 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
@@ -594,25 +616,25 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="B2">
-        <v>0.15</v>
-      </c>
-      <c r="C2">
-        <v>4000</v>
-      </c>
-      <c r="D2">
+        <v>2.5</v>
+      </c>
+      <c r="C2" s="9">
         <v>600</v>
       </c>
-      <c r="E2">
-        <v>540</v>
+      <c r="D2" s="5">
+        <v>1500</v>
+      </c>
+      <c r="E2" s="6">
+        <v>1350</v>
       </c>
       <c r="F2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G2" t="s">
         <v>9</v>
-      </c>
-      <c r="G2" t="s">
-        <v>10</v>
       </c>
       <c r="H2">
         <v>1</v>
@@ -620,25 +642,27 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3">
-        <v>0.36</v>
-      </c>
-      <c r="C3">
-        <v>1000</v>
-      </c>
-      <c r="D3">
-        <v>360</v>
-      </c>
-      <c r="E3">
-        <v>324</v>
+        <v>30</v>
+      </c>
+      <c r="B3" s="7">
+        <v>0.15454999999999999</v>
+      </c>
+      <c r="C3" s="9">
+        <v>120000</v>
+      </c>
+      <c r="D3" s="5">
+        <f>B3*C3</f>
+        <v>18546</v>
+      </c>
+      <c r="E3" s="5">
+        <f>D3*0.9</f>
+        <v>16691.400000000001</v>
       </c>
       <c r="F3" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="G3" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="H3">
         <v>1</v>
@@ -646,25 +670,25 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="B4">
-        <v>0.31</v>
-      </c>
-      <c r="C4">
-        <v>1200</v>
-      </c>
-      <c r="D4">
-        <v>372</v>
-      </c>
-      <c r="E4">
-        <v>334.8</v>
+        <v>0.20499999999999999</v>
+      </c>
+      <c r="C4" s="9">
+        <v>17500</v>
+      </c>
+      <c r="D4" s="5">
+        <v>3587.5</v>
+      </c>
+      <c r="E4" s="5">
+        <v>3228.75</v>
       </c>
       <c r="F4" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="G4" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="H4">
         <v>1</v>
@@ -672,27 +696,25 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="2">
-        <v>0.19650000000000001</v>
-      </c>
-      <c r="C5">
-        <v>69000</v>
-      </c>
-      <c r="D5">
-        <f>B5*C5</f>
-        <v>13558.5</v>
-      </c>
-      <c r="E5">
-        <f>D5*0.9</f>
-        <v>12202.65</v>
+        <v>23</v>
+      </c>
+      <c r="B5">
+        <v>0.05</v>
+      </c>
+      <c r="C5" s="9">
+        <v>27000</v>
+      </c>
+      <c r="D5" s="5">
+        <v>1350</v>
+      </c>
+      <c r="E5" s="5">
+        <v>1215</v>
       </c>
       <c r="F5" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="G5" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="H5">
         <v>1</v>
@@ -700,25 +722,27 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="B6">
-        <v>0.17499999999999999</v>
-      </c>
-      <c r="C6">
-        <v>7200</v>
-      </c>
-      <c r="D6">
-        <v>1260</v>
-      </c>
-      <c r="E6">
-        <v>1134</v>
+        <v>0.5</v>
+      </c>
+      <c r="C6" s="9">
+        <v>27000</v>
+      </c>
+      <c r="D6" s="5">
+        <f>B6*C6</f>
+        <v>13500</v>
+      </c>
+      <c r="E6" s="5">
+        <f>D6*0.9</f>
+        <v>12150</v>
       </c>
       <c r="F6" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="G6" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="H6">
         <v>1</v>
@@ -726,25 +750,25 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="B7">
-        <v>0.2261</v>
-      </c>
-      <c r="C7">
-        <v>55000</v>
-      </c>
-      <c r="D7">
-        <v>12435.5</v>
-      </c>
-      <c r="E7">
-        <v>11191.95</v>
+        <v>0.8</v>
+      </c>
+      <c r="C7" s="9">
+        <v>8000</v>
+      </c>
+      <c r="D7" s="5">
+        <v>6400</v>
+      </c>
+      <c r="E7" s="5">
+        <v>5760</v>
       </c>
       <c r="F7" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="G7" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="H7">
         <v>1</v>
@@ -752,25 +776,25 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="B8">
-        <v>0.24</v>
-      </c>
-      <c r="C8">
-        <v>4200</v>
-      </c>
-      <c r="D8">
-        <v>1008</v>
-      </c>
-      <c r="E8">
-        <v>907.2</v>
+        <v>0.17169999999999999</v>
+      </c>
+      <c r="C8" s="9">
+        <v>25000</v>
+      </c>
+      <c r="D8" s="5">
+        <v>4292.5</v>
+      </c>
+      <c r="E8" s="5">
+        <v>3863.25</v>
       </c>
       <c r="F8" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="G8" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="H8">
         <v>1</v>
@@ -778,25 +802,25 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="B9">
-        <v>0.25</v>
-      </c>
-      <c r="C9">
-        <v>81000</v>
-      </c>
-      <c r="D9">
-        <v>20250</v>
-      </c>
-      <c r="E9">
-        <v>18225</v>
+        <v>0.22220000000000001</v>
+      </c>
+      <c r="C9" s="9">
+        <v>50000</v>
+      </c>
+      <c r="D9" s="5">
+        <v>11110</v>
+      </c>
+      <c r="E9" s="5">
+        <v>9999</v>
       </c>
       <c r="F9" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="G9" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="H9">
         <v>1</v>
@@ -804,22 +828,22 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="B10">
-        <v>0.1</v>
-      </c>
-      <c r="C10">
-        <v>17500</v>
-      </c>
-      <c r="D10">
-        <v>1750</v>
-      </c>
-      <c r="E10">
-        <v>1575</v>
+        <v>0.31</v>
+      </c>
+      <c r="C10" s="9">
+        <v>1200</v>
+      </c>
+      <c r="D10" s="5">
+        <v>372</v>
+      </c>
+      <c r="E10" s="5">
+        <v>334.8</v>
       </c>
       <c r="F10" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="G10" t="s">
         <v>14</v>
@@ -830,25 +854,25 @@
     </row>
     <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B11">
-        <v>0.05</v>
-      </c>
-      <c r="C11">
-        <v>27000</v>
-      </c>
-      <c r="D11">
-        <v>1350</v>
-      </c>
-      <c r="E11">
-        <v>1215</v>
+        <v>0.25</v>
+      </c>
+      <c r="C11" s="9">
+        <v>81000</v>
+      </c>
+      <c r="D11" s="5">
+        <v>20250</v>
+      </c>
+      <c r="E11" s="5">
+        <v>18225</v>
       </c>
       <c r="F11" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="G11" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="H11">
         <v>1</v>
@@ -856,27 +880,25 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B12">
-        <v>0.5</v>
-      </c>
-      <c r="C12">
-        <v>27000</v>
-      </c>
-      <c r="D12">
-        <f>B12*C12</f>
-        <v>13500</v>
-      </c>
-      <c r="E12">
-        <f>D12*0.9</f>
-        <v>12150</v>
+        <v>0.1</v>
+      </c>
+      <c r="C12" s="9">
+        <v>17500</v>
+      </c>
+      <c r="D12" s="5">
+        <v>1750</v>
+      </c>
+      <c r="E12" s="5">
+        <v>1575</v>
       </c>
       <c r="F12" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="G12" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="H12">
         <v>1</v>
@@ -884,25 +906,25 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>0.8</v>
-      </c>
-      <c r="C13">
-        <v>8000</v>
-      </c>
-      <c r="D13">
-        <v>6400</v>
-      </c>
-      <c r="E13">
-        <v>5760</v>
+        <v>0.2261</v>
+      </c>
+      <c r="C13" s="9">
+        <v>55000</v>
+      </c>
+      <c r="D13" s="5">
+        <v>12435.5</v>
+      </c>
+      <c r="E13" s="5">
+        <v>11191.95</v>
       </c>
       <c r="F13" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="G13" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="H13">
         <v>1</v>
@@ -910,25 +932,27 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>28</v>
-      </c>
-      <c r="B14">
-        <v>0.20499999999999999</v>
-      </c>
-      <c r="C14">
-        <v>17500</v>
-      </c>
-      <c r="D14">
-        <v>3587.5</v>
-      </c>
-      <c r="E14">
-        <v>3228.75</v>
+        <v>15</v>
+      </c>
+      <c r="B14" s="2">
+        <v>0.19650000000000001</v>
+      </c>
+      <c r="C14" s="9">
+        <v>69000</v>
+      </c>
+      <c r="D14" s="5">
+        <f>B14*C14</f>
+        <v>13558.5</v>
+      </c>
+      <c r="E14" s="5">
+        <f>D14*0.9</f>
+        <v>12202.65</v>
       </c>
       <c r="F14" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="G14" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="H14">
         <v>1</v>
@@ -936,25 +960,25 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="B15">
-        <v>0.15459999999999999</v>
-      </c>
-      <c r="C15">
-        <v>120000</v>
-      </c>
-      <c r="D15">
-        <v>18552</v>
-      </c>
-      <c r="E15">
-        <v>16696.8</v>
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="C15" s="9">
+        <v>7200</v>
+      </c>
+      <c r="D15" s="5">
+        <v>1260</v>
+      </c>
+      <c r="E15" s="5">
+        <v>1134</v>
       </c>
       <c r="F15" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="G15" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="H15">
         <v>1</v>
@@ -962,25 +986,25 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="B16">
-        <v>0.13250000000000001</v>
-      </c>
-      <c r="C16">
-        <v>50000</v>
-      </c>
-      <c r="D16">
-        <v>6625</v>
-      </c>
-      <c r="E16">
-        <v>5962.5</v>
+        <v>0.15</v>
+      </c>
+      <c r="C16" s="9">
+        <v>4000</v>
+      </c>
+      <c r="D16" s="5">
+        <v>600</v>
+      </c>
+      <c r="E16" s="5">
+        <v>540</v>
       </c>
       <c r="F16" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="G16" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="H16">
         <v>1</v>
@@ -988,25 +1012,27 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="B17">
-        <v>0.17169999999999999</v>
-      </c>
-      <c r="C17">
-        <v>25000</v>
-      </c>
-      <c r="D17">
-        <v>4292.5</v>
-      </c>
-      <c r="E17">
-        <v>3863.25</v>
-      </c>
-      <c r="F17" t="s">
-        <v>31</v>
-      </c>
-      <c r="G17" t="s">
-        <v>25</v>
+        <v>1</v>
+      </c>
+      <c r="C17" s="9">
+        <v>4000</v>
+      </c>
+      <c r="D17" s="5">
+        <f>B17*C17</f>
+        <v>4000</v>
+      </c>
+      <c r="E17" s="5">
+        <f>D17*0.9</f>
+        <v>3600</v>
+      </c>
+      <c r="F17" s="3">
+        <v>45898</v>
+      </c>
+      <c r="G17" s="3">
+        <v>45912</v>
       </c>
       <c r="H17">
         <v>1</v>
@@ -1014,25 +1040,25 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="B18">
-        <v>0.22220000000000001</v>
-      </c>
-      <c r="C18">
-        <v>50000</v>
-      </c>
-      <c r="D18">
-        <v>11110</v>
-      </c>
-      <c r="E18">
-        <v>9999</v>
+        <v>0.24</v>
+      </c>
+      <c r="C18" s="9">
+        <v>4200</v>
+      </c>
+      <c r="D18" s="5">
+        <v>1008</v>
+      </c>
+      <c r="E18" s="5">
+        <v>907.2</v>
       </c>
       <c r="F18" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="G18" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="H18">
         <v>1</v>
@@ -1040,25 +1066,25 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="B19">
-        <v>2.5</v>
-      </c>
-      <c r="C19">
-        <v>600</v>
-      </c>
-      <c r="D19">
-        <v>1500</v>
-      </c>
-      <c r="E19">
-        <v>1350</v>
+        <v>0.36</v>
+      </c>
+      <c r="C19" s="9">
+        <v>1000</v>
+      </c>
+      <c r="D19" s="5">
+        <v>360</v>
+      </c>
+      <c r="E19" s="5">
+        <v>324</v>
       </c>
       <c r="F19" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="G19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H19">
         <v>1</v>
@@ -1066,27 +1092,27 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>48</v>
-      </c>
-      <c r="B20">
-        <v>1</v>
-      </c>
-      <c r="C20">
-        <v>4000</v>
-      </c>
-      <c r="D20">
+        <v>41</v>
+      </c>
+      <c r="B20" s="2">
+        <v>0.1128</v>
+      </c>
+      <c r="C20" s="9">
+        <v>20000</v>
+      </c>
+      <c r="D20" s="5">
         <f>B20*C20</f>
-        <v>4000</v>
-      </c>
-      <c r="E20">
+        <v>2256</v>
+      </c>
+      <c r="E20" s="5">
         <f>D20*0.9</f>
-        <v>3600</v>
+        <v>2030.4</v>
       </c>
       <c r="F20" s="3">
-        <v>45898</v>
+        <v>45897</v>
       </c>
       <c r="G20" s="3">
-        <v>45912</v>
+        <v>45915</v>
       </c>
       <c r="H20">
         <v>1</v>
@@ -1094,27 +1120,25 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>41</v>
-      </c>
-      <c r="B21" s="2">
-        <v>0.1128</v>
-      </c>
-      <c r="C21">
-        <v>20000</v>
-      </c>
-      <c r="D21">
-        <f>B21*C21</f>
-        <v>2256</v>
-      </c>
-      <c r="E21">
-        <f>D21*0.9</f>
-        <v>2030.4</v>
-      </c>
-      <c r="F21" s="3">
-        <v>45897</v>
-      </c>
-      <c r="G21" s="3">
-        <v>45915</v>
+        <v>33</v>
+      </c>
+      <c r="B21">
+        <v>0.13250000000000001</v>
+      </c>
+      <c r="C21" s="9">
+        <v>50000</v>
+      </c>
+      <c r="D21" s="5">
+        <v>6625</v>
+      </c>
+      <c r="E21" s="5">
+        <v>5962.5</v>
+      </c>
+      <c r="F21" t="s">
+        <v>31</v>
+      </c>
+      <c r="G21" t="s">
+        <v>34</v>
       </c>
       <c r="H21">
         <v>1</v>
@@ -1122,25 +1146,25 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B22">
-        <v>0.24</v>
-      </c>
-      <c r="C22">
-        <v>6800</v>
-      </c>
-      <c r="D22">
-        <v>1632</v>
-      </c>
-      <c r="E22">
-        <v>1468.8</v>
+        <v>0.8</v>
+      </c>
+      <c r="C22" s="9">
+        <v>2500</v>
+      </c>
+      <c r="D22" s="5">
+        <v>2000</v>
+      </c>
+      <c r="E22" s="5">
+        <v>1800</v>
       </c>
       <c r="F22" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G22" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1148,40 +1172,96 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B23">
-        <v>0.8</v>
-      </c>
-      <c r="C23">
-        <v>2500</v>
-      </c>
-      <c r="D23">
-        <v>2000</v>
-      </c>
-      <c r="E23">
-        <v>1800</v>
+        <v>0.24</v>
+      </c>
+      <c r="C23" s="9">
+        <v>6800</v>
+      </c>
+      <c r="D23" s="5">
+        <v>1632</v>
+      </c>
+      <c r="E23" s="5">
+        <v>1468.8</v>
       </c>
       <c r="F23" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G23" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="E24">
+      <c r="E24" s="5">
         <f>SUM(E2:E23)</f>
-        <v>115559.1</v>
+        <v>115553.7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25">
+        <v>0.15459999999999999</v>
+      </c>
+      <c r="C25" s="9">
+        <v>30000</v>
+      </c>
+      <c r="D25" s="5">
+        <f>D26-D3</f>
+        <v>4636.5</v>
+      </c>
+      <c r="E25" s="5">
+        <f>D25*0.9</f>
+        <v>4172.8500000000004</v>
+      </c>
+      <c r="F25" t="s">
+        <v>31</v>
+      </c>
+      <c r="G25" t="s">
+        <v>32</v>
+      </c>
+      <c r="H25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>49</v>
+      </c>
+      <c r="B26" s="7">
+        <v>0.15454999999999999</v>
+      </c>
+      <c r="C26" s="9">
+        <v>150000</v>
+      </c>
+      <c r="D26" s="5">
+        <f>B26*C26</f>
+        <v>23182.5</v>
+      </c>
+      <c r="E26" s="5">
+        <f>D26*0.9</f>
+        <v>20864.25</v>
+      </c>
+      <c r="F26" t="s">
+        <v>31</v>
+      </c>
+      <c r="G26" t="s">
+        <v>32</v>
+      </c>
+      <c r="H26">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H23">
     <sortCondition descending="1" ref="H2:H23"/>
-    <sortCondition descending="1" ref="F2:F23"/>
+    <sortCondition ref="G2:G23"/>
     <sortCondition ref="A2:A23"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Excel/21-div-25q2.xlsx
+++ b/Excel/21-div-25q2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c8862359375ebd62/A5/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="22" documentId="13_ncr:1_{3F3DCF4D-74C3-4193-BB5D-BB65216E93B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FEC2CE09-35DF-4944-BCAA-CC98FD0C6EE3}"/>
+  <xr:revisionPtr revIDLastSave="36" documentId="13_ncr:1_{3F3DCF4D-74C3-4193-BB5D-BB65216E93B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A78D6C90-E019-4314-B721-1CD474CF8F68}"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="384" windowWidth="10116" windowHeight="9960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12696" yWindow="0" windowWidth="10344" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="50">
   <si>
     <t>name</t>
   </si>
@@ -574,10 +574,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -681,7 +681,7 @@
       <c r="D4" s="5">
         <v>3587.5</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="6">
         <v>3228.75</v>
       </c>
       <c r="F4" t="s">
@@ -707,8 +707,9 @@
       <c r="D5" s="5">
         <v>1350</v>
       </c>
-      <c r="E5" s="5">
-        <v>1215</v>
+      <c r="E5" s="6">
+        <f>D5</f>
+        <v>1350</v>
       </c>
       <c r="F5" t="s">
         <v>24</v>
@@ -734,9 +735,8 @@
         <f>B6*C6</f>
         <v>13500</v>
       </c>
-      <c r="E6" s="5">
-        <f>D6*0.9</f>
-        <v>12150</v>
+      <c r="E6" s="6">
+        <v>12825</v>
       </c>
       <c r="F6" t="s">
         <v>24</v>
@@ -761,7 +761,7 @@
       <c r="D7" s="5">
         <v>6400</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="6">
         <v>5760</v>
       </c>
       <c r="F7" t="s">
@@ -787,7 +787,7 @@
       <c r="D8" s="5">
         <v>4292.5</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="6">
         <v>3863.25</v>
       </c>
       <c r="F8" t="s">
@@ -1199,7 +1199,7 @@
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="E24" s="5">
         <f>SUM(E2:E23)</f>
-        <v>115553.7</v>
+        <v>116363.7</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
@@ -1216,7 +1216,7 @@
         <f>D26-D3</f>
         <v>4636.5</v>
       </c>
-      <c r="E25" s="5">
+      <c r="E25" s="6">
         <f>D25*0.9</f>
         <v>4172.8500000000004</v>
       </c>
@@ -1255,6 +1255,34 @@
         <v>32</v>
       </c>
       <c r="H26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>35</v>
+      </c>
+      <c r="B27">
+        <v>2.1299999999999999E-2</v>
+      </c>
+      <c r="C27" s="9">
+        <v>25000</v>
+      </c>
+      <c r="D27" s="5">
+        <f>B27*C27</f>
+        <v>532.5</v>
+      </c>
+      <c r="E27" s="6">
+        <f>D27</f>
+        <v>532.5</v>
+      </c>
+      <c r="F27" t="s">
+        <v>31</v>
+      </c>
+      <c r="G27" t="s">
+        <v>25</v>
+      </c>
+      <c r="H27">
         <v>1</v>
       </c>
     </row>

--- a/Excel/21-div-25q2.xlsx
+++ b/Excel/21-div-25q2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c8862359375ebd62/A5/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="36" documentId="13_ncr:1_{3F3DCF4D-74C3-4193-BB5D-BB65216E93B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A78D6C90-E019-4314-B721-1CD474CF8F68}"/>
+  <xr:revisionPtr revIDLastSave="42" documentId="13_ncr:1_{3F3DCF4D-74C3-4193-BB5D-BB65216E93B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9DEB588A-891A-4781-A1A6-07FDD05A9D68}"/>
   <bookViews>
-    <workbookView xWindow="12696" yWindow="0" windowWidth="10344" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10944" yWindow="852" windowWidth="10128" windowHeight="10032" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -577,7 +577,7 @@
   <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -813,7 +813,7 @@
       <c r="D9" s="5">
         <v>11110</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="6">
         <v>9999</v>
       </c>
       <c r="F9" t="s">
@@ -839,8 +839,8 @@
       <c r="D10" s="5">
         <v>372</v>
       </c>
-      <c r="E10" s="5">
-        <v>334.8</v>
+      <c r="E10" s="6">
+        <v>339.6</v>
       </c>
       <c r="F10" t="s">
         <v>13</v>
@@ -865,8 +865,8 @@
       <c r="D11" s="5">
         <v>20250</v>
       </c>
-      <c r="E11" s="5">
-        <v>18225</v>
+      <c r="E11" s="6">
+        <v>19926</v>
       </c>
       <c r="F11" t="s">
         <v>19</v>
@@ -891,7 +891,7 @@
       <c r="D12" s="5">
         <v>1750</v>
       </c>
-      <c r="E12" s="5">
+      <c r="E12" s="6">
         <v>1575</v>
       </c>
       <c r="F12" t="s">
@@ -1199,7 +1199,7 @@
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="E24" s="5">
         <f>SUM(E2:E23)</f>
-        <v>116363.7</v>
+        <v>118069.49999999999</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">

--- a/Excel/21-div-25q2.xlsx
+++ b/Excel/21-div-25q2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c8862359375ebd62/A5/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="42" documentId="13_ncr:1_{3F3DCF4D-74C3-4193-BB5D-BB65216E93B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9DEB588A-891A-4781-A1A6-07FDD05A9D68}"/>
+  <xr:revisionPtr revIDLastSave="62" documentId="13_ncr:1_{3F3DCF4D-74C3-4193-BB5D-BB65216E93B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DF893211-0C23-4E93-B593-522326205E64}"/>
   <bookViews>
-    <workbookView xWindow="10944" yWindow="852" windowWidth="10128" windowHeight="10032" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="840" windowWidth="10128" windowHeight="10032" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="51">
   <si>
     <t>name</t>
   </si>
@@ -183,6 +183,9 @@
   </si>
   <si>
     <t>Total</t>
+  </si>
+  <si>
+    <t>Pom</t>
   </si>
 </sst>
 </file>
@@ -574,10 +577,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:H33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="K33" sqref="K33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -944,7 +947,7 @@
         <f>B14*C14</f>
         <v>13558.5</v>
       </c>
-      <c r="E14" s="5">
+      <c r="E14" s="6">
         <f>D14*0.9</f>
         <v>12202.65</v>
       </c>
@@ -971,7 +974,7 @@
       <c r="D15" s="5">
         <v>1260</v>
       </c>
-      <c r="E15" s="5">
+      <c r="E15" s="6">
         <v>1134</v>
       </c>
       <c r="F15" t="s">
@@ -1284,6 +1287,110 @@
       </c>
       <c r="H27">
         <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>18</v>
+      </c>
+      <c r="B28">
+        <v>0.2261</v>
+      </c>
+      <c r="C28" s="9">
+        <v>24000</v>
+      </c>
+      <c r="D28" s="5">
+        <f>B28*C28</f>
+        <v>5426.4</v>
+      </c>
+      <c r="E28" s="5">
+        <f>D28*0.9</f>
+        <v>4883.76</v>
+      </c>
+      <c r="F28" t="s">
+        <v>19</v>
+      </c>
+      <c r="G28" t="s">
+        <v>16</v>
+      </c>
+      <c r="H28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E29" s="6">
+        <f>E13+E28</f>
+        <v>16075.710000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>18</v>
+      </c>
+      <c r="B30">
+        <v>4.3900000000000002E-2</v>
+      </c>
+      <c r="C30" s="9">
+        <v>55000</v>
+      </c>
+      <c r="D30" s="5">
+        <f>B30*C30</f>
+        <v>2414.5</v>
+      </c>
+      <c r="E30" s="5">
+        <v>2414.5</v>
+      </c>
+      <c r="F30" t="s">
+        <v>19</v>
+      </c>
+      <c r="G30" t="s">
+        <v>16</v>
+      </c>
+      <c r="H30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>18</v>
+      </c>
+      <c r="B31">
+        <v>4.3900000000000002E-2</v>
+      </c>
+      <c r="C31" s="9">
+        <v>24000</v>
+      </c>
+      <c r="D31" s="5">
+        <f>B31*C31</f>
+        <v>1053.6000000000001</v>
+      </c>
+      <c r="E31" s="5">
+        <f>D31</f>
+        <v>1053.6000000000001</v>
+      </c>
+      <c r="F31" t="s">
+        <v>19</v>
+      </c>
+      <c r="G31" t="s">
+        <v>16</v>
+      </c>
+      <c r="H31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E32" s="6">
+        <f>E30+E31</f>
+        <v>3468.1000000000004</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>50</v>
+      </c>
+      <c r="E33" s="5">
+        <f>E28+E31</f>
+        <v>5937.3600000000006</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/21-div-25q2.xlsx
+++ b/Excel/21-div-25q2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c8862359375ebd62/A5/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="62" documentId="13_ncr:1_{3F3DCF4D-74C3-4193-BB5D-BB65216E93B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DF893211-0C23-4E93-B593-522326205E64}"/>
+  <xr:revisionPtr revIDLastSave="70" documentId="13_ncr:1_{3F3DCF4D-74C3-4193-BB5D-BB65216E93B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1DC07C17-49A8-4E9E-AE30-DDCB5DAD27AF}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="840" windowWidth="10128" windowHeight="10032" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11988" yWindow="0" windowWidth="10332" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -579,8 +579,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="K33" sqref="K33"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1000,7 +1000,7 @@
       <c r="D16" s="5">
         <v>600</v>
       </c>
-      <c r="E16" s="5">
+      <c r="E16" s="6">
         <v>540</v>
       </c>
       <c r="F16" t="s">
@@ -1021,15 +1021,15 @@
         <v>1</v>
       </c>
       <c r="C17" s="9">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="D17" s="5">
         <f>B17*C17</f>
-        <v>4000</v>
-      </c>
-      <c r="E17" s="5">
+        <v>5000</v>
+      </c>
+      <c r="E17" s="6">
         <f>D17*0.9</f>
-        <v>3600</v>
+        <v>4500</v>
       </c>
       <c r="F17" s="3">
         <v>45898</v>
@@ -1054,7 +1054,7 @@
       <c r="D18" s="5">
         <v>1008</v>
       </c>
-      <c r="E18" s="5">
+      <c r="E18" s="6">
         <v>907.2</v>
       </c>
       <c r="F18" t="s">
@@ -1080,7 +1080,7 @@
       <c r="D19" s="5">
         <v>360</v>
       </c>
-      <c r="E19" s="5">
+      <c r="E19" s="6">
         <v>324</v>
       </c>
       <c r="F19" t="s">
@@ -1107,9 +1107,9 @@
         <f>B20*C20</f>
         <v>2256</v>
       </c>
-      <c r="E20" s="5">
-        <f>D20*0.9</f>
-        <v>2030.4</v>
+      <c r="E20" s="6">
+        <f>D20</f>
+        <v>2256</v>
       </c>
       <c r="F20" s="3">
         <v>45897</v>
@@ -1134,7 +1134,7 @@
       <c r="D21" s="5">
         <v>6625</v>
       </c>
-      <c r="E21" s="5">
+      <c r="E21" s="6">
         <v>5962.5</v>
       </c>
       <c r="F21" t="s">
@@ -1202,7 +1202,7 @@
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="E24" s="5">
         <f>SUM(E2:E23)</f>
-        <v>118069.49999999999</v>
+        <v>119195.09999999999</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">

--- a/Excel/21-div-25q2.xlsx
+++ b/Excel/21-div-25q2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c8862359375ebd62/A5/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="70" documentId="13_ncr:1_{3F3DCF4D-74C3-4193-BB5D-BB65216E93B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1DC07C17-49A8-4E9E-AE30-DDCB5DAD27AF}"/>
+  <xr:revisionPtr revIDLastSave="77" documentId="13_ncr:1_{3F3DCF4D-74C3-4193-BB5D-BB65216E93B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1224DA2B-0B29-442A-9E20-8AE055F62704}"/>
   <bookViews>
-    <workbookView xWindow="11988" yWindow="0" windowWidth="10332" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="936" yWindow="1368" windowWidth="10332" windowHeight="11544" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -209,6 +209,7 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -254,7 +255,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -271,6 +272,7 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -286,10 +288,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -580,7 +578,7 @@
   <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -920,7 +918,8 @@
       <c r="D13" s="5">
         <v>12435.5</v>
       </c>
-      <c r="E13" s="5">
+      <c r="E13" s="6">
+        <f>D13*0.9</f>
         <v>11191.95</v>
       </c>
       <c r="F13" t="s">
@@ -1155,13 +1154,15 @@
         <v>0.8</v>
       </c>
       <c r="C22" s="9">
-        <v>2500</v>
+        <v>5000</v>
       </c>
       <c r="D22" s="5">
-        <v>2000</v>
-      </c>
-      <c r="E22" s="5">
-        <v>1800</v>
+        <f>B22*C22</f>
+        <v>4000</v>
+      </c>
+      <c r="E22" s="10">
+        <f>D22*0.9</f>
+        <v>3600</v>
       </c>
       <c r="F22" t="s">
         <v>46</v>
@@ -1187,7 +1188,7 @@
         <v>1632</v>
       </c>
       <c r="E23" s="5">
-        <v>1468.8</v>
+        <v>0</v>
       </c>
       <c r="F23" t="s">
         <v>43</v>
@@ -1202,7 +1203,7 @@
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="E24" s="5">
         <f>SUM(E2:E23)</f>
-        <v>119195.09999999999</v>
+        <v>119526.29999999999</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">

--- a/Excel/21-div-25q2.xlsx
+++ b/Excel/21-div-25q2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c8862359375ebd62/A5/Excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/C8862359375EBD62/A5/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="77" documentId="13_ncr:1_{3F3DCF4D-74C3-4193-BB5D-BB65216E93B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1224DA2B-0B29-442A-9E20-8AE055F62704}"/>
+  <xr:revisionPtr revIDLastSave="85" documentId="13_ncr:1_{3F3DCF4D-74C3-4193-BB5D-BB65216E93B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2B502A24-8B89-4F81-8A09-6AD4072000F1}"/>
   <bookViews>
-    <workbookView xWindow="936" yWindow="1368" windowWidth="10332" windowHeight="11544" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8544" yWindow="1284" windowWidth="13848" windowHeight="10152" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="46">
   <si>
     <t>name</t>
   </si>
@@ -161,22 +161,7 @@
     <t>TFFIF</t>
   </si>
   <si>
-    <t>JMART</t>
-  </si>
-  <si>
-    <t>2025-05-09</t>
-  </si>
-  <si>
-    <t>2025-05-29</t>
-  </si>
-  <si>
     <t>PTT</t>
-  </si>
-  <si>
-    <t>2025-03-06</t>
-  </si>
-  <si>
-    <t>2025-04-29</t>
   </si>
   <si>
     <t>CPF</t>
@@ -193,15 +178,15 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="yyyy/mm/dd;@"/>
-    <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
-    <numFmt numFmtId="166" formatCode="0.00000"/>
+    <numFmt numFmtId="187" formatCode="yyyy/mm/dd;@"/>
+    <numFmt numFmtId="188" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="189" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Tahoma"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -215,7 +200,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Tahoma"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -261,18 +253,18 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="187" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="188" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="188" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="188" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="189" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -288,6 +280,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -575,21 +571,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H33"/>
+  <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="8.88671875" style="9"/>
+    <col min="3" max="3" width="8.8984375" style="9"/>
     <col min="4" max="4" width="10" style="5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="10.296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -615,7 +611,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>39</v>
       </c>
@@ -641,7 +637,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>30</v>
       </c>
@@ -669,7 +665,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>28</v>
       </c>
@@ -695,7 +691,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>23</v>
       </c>
@@ -722,7 +718,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>26</v>
       </c>
@@ -749,7 +745,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>27</v>
       </c>
@@ -775,7 +771,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>35</v>
       </c>
@@ -801,7 +797,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>36</v>
       </c>
@@ -827,7 +823,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -853,7 +849,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -879,7 +875,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -905,7 +901,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>18</v>
       </c>
@@ -932,7 +928,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -960,7 +956,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -986,7 +982,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>8</v>
       </c>
@@ -1012,9 +1008,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -1040,7 +1036,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -1066,7 +1062,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>11</v>
       </c>
@@ -1092,7 +1088,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>41</v>
       </c>
@@ -1120,7 +1116,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>33</v>
       </c>
@@ -1146,83 +1142,85 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>45</v>
-      </c>
-      <c r="B22">
-        <v>0.8</v>
+        <v>42</v>
+      </c>
+      <c r="B22" s="10">
+        <v>0.9</v>
       </c>
       <c r="C22" s="9">
-        <v>5000</v>
+        <v>7500</v>
       </c>
       <c r="D22" s="5">
         <f>B22*C22</f>
-        <v>4000</v>
-      </c>
-      <c r="E22" s="10">
+        <v>6750</v>
+      </c>
+      <c r="E22" s="5">
         <f>D22*0.9</f>
-        <v>3600</v>
-      </c>
-      <c r="F22" t="s">
-        <v>46</v>
-      </c>
-      <c r="G22" t="s">
-        <v>47</v>
+        <v>6075</v>
+      </c>
+      <c r="F22" s="3">
+        <v>45931</v>
+      </c>
+      <c r="G22" s="3">
+        <v>45947</v>
       </c>
       <c r="H22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>42</v>
-      </c>
-      <c r="B23">
-        <v>0.24</v>
-      </c>
-      <c r="C23" s="9">
-        <v>6800</v>
-      </c>
-      <c r="D23" s="5">
-        <v>1632</v>
-      </c>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E23" s="5">
-        <v>0</v>
-      </c>
-      <c r="F23" t="s">
-        <v>43</v>
-      </c>
-      <c r="G23" t="s">
+        <f>SUM(E2:E22)</f>
+        <v>122001.29999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24">
+        <v>0.15459999999999999</v>
+      </c>
+      <c r="C24" s="9">
+        <v>30000</v>
+      </c>
+      <c r="D24" s="5">
+        <f>D25-D3</f>
+        <v>4636.5</v>
+      </c>
+      <c r="E24" s="6">
+        <f>D24*0.9</f>
+        <v>4172.8500000000004</v>
+      </c>
+      <c r="F24" t="s">
+        <v>31</v>
+      </c>
+      <c r="G24" t="s">
+        <v>32</v>
+      </c>
+      <c r="H24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>44</v>
       </c>
-      <c r="H23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="E24" s="5">
-        <f>SUM(E2:E23)</f>
-        <v>119526.29999999999</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>30</v>
-      </c>
-      <c r="B25">
-        <v>0.15459999999999999</v>
+      <c r="B25" s="7">
+        <v>0.15454999999999999</v>
       </c>
       <c r="C25" s="9">
-        <v>30000</v>
+        <v>150000</v>
       </c>
       <c r="D25" s="5">
-        <f>D26-D3</f>
-        <v>4636.5</v>
-      </c>
-      <c r="E25" s="6">
+        <f>B25*C25</f>
+        <v>23182.5</v>
+      </c>
+      <c r="E25" s="5">
         <f>D25*0.9</f>
-        <v>4172.8500000000004</v>
+        <v>20864.25</v>
       </c>
       <c r="F25" t="s">
         <v>31</v>
@@ -1234,97 +1232,96 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>49</v>
-      </c>
-      <c r="B26" s="7">
-        <v>0.15454999999999999</v>
+        <v>35</v>
+      </c>
+      <c r="B26">
+        <v>2.1299999999999999E-2</v>
       </c>
       <c r="C26" s="9">
-        <v>150000</v>
+        <v>25000</v>
       </c>
       <c r="D26" s="5">
         <f>B26*C26</f>
-        <v>23182.5</v>
-      </c>
-      <c r="E26" s="5">
-        <f>D26*0.9</f>
-        <v>20864.25</v>
+        <v>532.5</v>
+      </c>
+      <c r="E26" s="6">
+        <f>D26</f>
+        <v>532.5</v>
       </c>
       <c r="F26" t="s">
         <v>31</v>
       </c>
       <c r="G26" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="H26">
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="B27">
-        <v>2.1299999999999999E-2</v>
+        <v>0.2261</v>
       </c>
       <c r="C27" s="9">
-        <v>25000</v>
+        <v>24000</v>
       </c>
       <c r="D27" s="5">
         <f>B27*C27</f>
-        <v>532.5</v>
-      </c>
-      <c r="E27" s="6">
-        <f>D27</f>
-        <v>532.5</v>
+        <v>5426.4</v>
+      </c>
+      <c r="E27" s="5">
+        <f>D27*0.9</f>
+        <v>4883.76</v>
       </c>
       <c r="F27" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="G27" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="H27">
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E28" s="6">
+        <f>E13+E27</f>
+        <v>16075.710000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>18</v>
       </c>
-      <c r="B28">
-        <v>0.2261</v>
-      </c>
-      <c r="C28" s="9">
-        <v>24000</v>
-      </c>
-      <c r="D28" s="5">
-        <f>B28*C28</f>
-        <v>5426.4</v>
-      </c>
-      <c r="E28" s="5">
-        <f>D28*0.9</f>
-        <v>4883.76</v>
-      </c>
-      <c r="F28" t="s">
+      <c r="B29">
+        <v>4.3900000000000002E-2</v>
+      </c>
+      <c r="C29" s="9">
+        <v>55000</v>
+      </c>
+      <c r="D29" s="5">
+        <f>B29*C29</f>
+        <v>2414.5</v>
+      </c>
+      <c r="E29" s="5">
+        <v>2414.5</v>
+      </c>
+      <c r="F29" t="s">
         <v>19</v>
       </c>
-      <c r="G28" t="s">
+      <c r="G29" t="s">
         <v>16</v>
       </c>
-      <c r="H28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="E29" s="6">
-        <f>E13+E28</f>
-        <v>16075.710000000001</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>18</v>
       </c>
@@ -1332,14 +1329,15 @@
         <v>4.3900000000000002E-2</v>
       </c>
       <c r="C30" s="9">
-        <v>55000</v>
+        <v>24000</v>
       </c>
       <c r="D30" s="5">
         <f>B30*C30</f>
-        <v>2414.5</v>
+        <v>1053.6000000000001</v>
       </c>
       <c r="E30" s="5">
-        <v>2414.5</v>
+        <f>D30</f>
+        <v>1053.6000000000001</v>
       </c>
       <c r="F30" t="s">
         <v>19</v>
@@ -1351,54 +1349,26 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>18</v>
-      </c>
-      <c r="B31">
-        <v>4.3900000000000002E-2</v>
-      </c>
-      <c r="C31" s="9">
-        <v>24000</v>
-      </c>
-      <c r="D31" s="5">
-        <f>B31*C31</f>
-        <v>1053.6000000000001</v>
-      </c>
-      <c r="E31" s="5">
-        <f>D31</f>
-        <v>1053.6000000000001</v>
-      </c>
-      <c r="F31" t="s">
-        <v>19</v>
-      </c>
-      <c r="G31" t="s">
-        <v>16</v>
-      </c>
-      <c r="H31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="E32" s="6">
-        <f>E30+E31</f>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E31" s="6">
+        <f>E29+E30</f>
         <v>3468.1000000000004</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>50</v>
-      </c>
-      <c r="E33" s="5">
-        <f>E28+E31</f>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>45</v>
+      </c>
+      <c r="E32" s="5">
+        <f>E27+E30</f>
         <v>5937.3600000000006</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H23">
-    <sortCondition descending="1" ref="H2:H23"/>
-    <sortCondition ref="G2:G23"/>
-    <sortCondition ref="A2:A23"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H22">
+    <sortCondition descending="1" ref="H2:H22"/>
+    <sortCondition ref="G2:G22"/>
+    <sortCondition ref="A2:A22"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Excel/21-div-25q2.xlsx
+++ b/Excel/21-div-25q2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/C8862359375EBD62/A5/Excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c8862359375ebd62/A5/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="85" documentId="13_ncr:1_{3F3DCF4D-74C3-4193-BB5D-BB65216E93B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2B502A24-8B89-4F81-8A09-6AD4072000F1}"/>
+  <xr:revisionPtr revIDLastSave="88" documentId="13_ncr:1_{3F3DCF4D-74C3-4193-BB5D-BB65216E93B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1ACECAAB-9D51-48D7-996E-77D7AF73B075}"/>
   <bookViews>
-    <workbookView xWindow="8544" yWindow="1284" windowWidth="13848" windowHeight="10152" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="384" yWindow="384" windowWidth="14892" windowHeight="10404" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -178,15 +178,15 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="187" formatCode="yyyy/mm/dd;@"/>
-    <numFmt numFmtId="188" formatCode="&quot;$&quot;#,##0.00"/>
-    <numFmt numFmtId="189" formatCode="0.00000"/>
+    <numFmt numFmtId="164" formatCode="yyyy/mm/dd;@"/>
+    <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="166" formatCode="0.00000"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Tahoma"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -200,14 +200,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Tahoma"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF00B050"/>
-      <name val="Tahoma"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -253,13 +253,13 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="187" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="188" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="188" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="188" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="189" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -573,19 +573,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="8.8984375" style="9"/>
+    <col min="3" max="3" width="8.88671875" style="9"/>
     <col min="4" max="4" width="10" style="5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="10.296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -611,7 +612,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>39</v>
       </c>
@@ -637,7 +638,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>30</v>
       </c>
@@ -665,7 +666,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>28</v>
       </c>
@@ -691,7 +692,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>23</v>
       </c>
@@ -718,7 +719,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>26</v>
       </c>
@@ -745,7 +746,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>27</v>
       </c>
@@ -771,7 +772,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>35</v>
       </c>
@@ -797,7 +798,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>36</v>
       </c>
@@ -823,7 +824,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -849,7 +850,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -875,7 +876,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -901,7 +902,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>18</v>
       </c>
@@ -928,7 +929,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -956,7 +957,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -982,7 +983,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>8</v>
       </c>
@@ -1008,7 +1009,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>43</v>
       </c>
@@ -1036,7 +1037,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -1062,7 +1063,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>11</v>
       </c>
@@ -1088,7 +1089,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>41</v>
       </c>
@@ -1116,7 +1117,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>33</v>
       </c>
@@ -1142,7 +1143,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>42</v>
       </c>
@@ -1170,13 +1171,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="E23" s="5">
         <f>SUM(E2:E22)</f>
         <v>122001.29999999999</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H23" s="5"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>30</v>
       </c>
@@ -1204,7 +1206,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>44</v>
       </c>
@@ -1232,7 +1234,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>35</v>
       </c>
@@ -1260,7 +1262,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>18</v>
       </c>
@@ -1288,13 +1290,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="E28" s="6">
         <f>E13+E27</f>
         <v>16075.710000000001</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>18</v>
       </c>
@@ -1321,7 +1323,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>18</v>
       </c>
@@ -1349,13 +1351,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="E31" s="6">
         <f>E29+E30</f>
         <v>3468.1000000000004</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>45</v>
       </c>

--- a/Excel/21-div-25q2.xlsx
+++ b/Excel/21-div-25q2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c8862359375ebd62/A5/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="88" documentId="13_ncr:1_{3F3DCF4D-74C3-4193-BB5D-BB65216E93B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1ACECAAB-9D51-48D7-996E-77D7AF73B075}"/>
+  <xr:revisionPtr revIDLastSave="89" documentId="13_ncr:1_{3F3DCF4D-74C3-4193-BB5D-BB65216E93B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9D99113E-6E75-4924-82CE-3739BD66AD7B}"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="384" windowWidth="14892" windowHeight="10404" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="10356" windowHeight="10404" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -574,7 +574,7 @@
   <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1157,7 +1157,7 @@
         <f>B22*C22</f>
         <v>6750</v>
       </c>
-      <c r="E22" s="5">
+      <c r="E22" s="6">
         <f>D22*0.9</f>
         <v>6075</v>
       </c>
